--- a/COMBINED.xlsx
+++ b/COMBINED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cathalcom/Dropbox/ACC/trial_reviews_oct2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613324D6-60A5-6F49-9A47-E098C65E1ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BE1673-3C4C-D746-AFBD-BFF657A16874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{5133AA31-E9B6-3E42-B4A0-11E4EDD2D369}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <author>Kirsty Graham</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{6CD989DA-B192-134B-82EE-8E3DF8D557C7}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{6CD989DA-B192-134B-82EE-8E3DF8D557C7}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K43" authorId="1" shapeId="0" xr:uid="{3153FECB-09B6-7647-948F-FF67A34F04AC}">
+    <comment ref="L43" authorId="1" shapeId="0" xr:uid="{3153FECB-09B6-7647-948F-FF67A34F04AC}">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N43" authorId="1" shapeId="0" xr:uid="{CE186B40-A978-A140-8AC6-D34A8B799C65}">
+    <comment ref="O43" authorId="1" shapeId="0" xr:uid="{CE186B40-A978-A140-8AC6-D34A8B799C65}">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="256">
   <si>
     <t>Working Title</t>
   </si>
@@ -2820,6 +2820,21 @@
   </si>
   <si>
     <t>Humans and various nonhuman primates respond negatively to inequity not in their favor (i.e., inequity aversion), when inequity between two individuals is introduced. Common marmosets, a highly prosocial species, further discriminated between human actors who reciprocated in social exchanges, and those who did not. Conversely, marmoset models of autism, induced via prenatal exposure to valproic acid (VPA marmosets), did not discriminate. Interestingly, previous studies of inequity aversion in marmosets have produced negative results, or were limited to males. Recent studies suggest that inequity aversion is highly influenced by the tasks employed. Here we show inequity aversion in both male and female marmosets using a novel task which required a relatively long duration of response. Marmosets were required to hold a spoon for 2 s to receive a reward. Marmosets successfully performed the task when they observed an unfamiliar conspecific partner obtaining the same reward (equity test). However, when they witnessed the partner receiving a more attractive reward for equal effort (inequity test), unexposed marmosets, which were not exposed to either valproic acid or saline during the fetal period refused to respond. This inequity aversion was not observed in unexposed marmosets when the partner was absent.　In contrast, marmosets with fetal exposure to valproic acid (VPA marmosets) successfully executed the task irrespective of their partners’ reward conditions. As prenatal exposure to valproic acid is a well-known procedure to induce autism spectrum disorder (ASD)-like behaviors in rodents, we propose that VPA marmosets failed to show inequity aversion due to weak social motivation or interest towards others.</t>
+  </si>
+  <si>
+    <t>Cognitive ability</t>
+  </si>
+  <si>
+    <t>metacognition</t>
+  </si>
+  <si>
+    <t>Semantics in primates</t>
+  </si>
+  <si>
+    <t>social comparison</t>
+  </si>
+  <si>
+    <t>Joint Attention</t>
   </si>
 </sst>
 </file>
@@ -3579,15 +3594,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D02A050-F193-704C-ACB2-AB73BF9275A2}">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17" s="40" customFormat="1" ht="51">
+    <row r="1" spans="1:18" s="40" customFormat="1" ht="51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3604,43 +3619,46 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="40" customFormat="1" ht="102">
+    <row r="2" spans="1:18" s="40" customFormat="1" ht="102">
       <c r="A2" s="41" t="s">
         <v>17</v>
       </c>
@@ -3656,42 +3674,43 @@
       <c r="E2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="M2" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="100" customHeight="1">
+    <row r="3" spans="1:18" ht="100" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>32</v>
       </c>
@@ -3707,42 +3726,45 @@
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="11">
-        <v>1</v>
+      <c r="F3" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="11">
         <v>7</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>2017</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="100" customHeight="1">
+    <row r="4" spans="1:18" ht="100" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
@@ -3758,42 +3780,45 @@
       <c r="E4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
-        <v>1</v>
+      <c r="F4" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="11">
+      <c r="K4" s="11">
         <v>7</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>2017</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="O4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:17" ht="100" customHeight="1">
+    <row r="5" spans="1:18" ht="100" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>32</v>
       </c>
@@ -3809,42 +3834,45 @@
       <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>4</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>2010</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="N5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="O5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="Q5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:17" ht="100" customHeight="1">
+    <row r="6" spans="1:18" ht="100" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
@@ -3860,42 +3888,45 @@
       <c r="E6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="11">
         <v>2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="11">
         <v>1</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="11">
         <v>8</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>2010</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="N6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="P6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:17" ht="100" customHeight="1">
+    <row r="7" spans="1:18" ht="100" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
@@ -3911,42 +3942,45 @@
       <c r="E7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="11">
         <v>2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <v>1</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>2010</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="O7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="P7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="Q7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:17" ht="100" customHeight="1">
+    <row r="8" spans="1:18" ht="100" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
@@ -3962,42 +3996,45 @@
       <c r="E8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="11">
         <v>7</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>2010</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="O8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="P8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="Q8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="100" customHeight="1">
+    <row r="9" spans="1:18" ht="100" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -4013,42 +4050,45 @@
       <c r="E9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>1</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="I9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>12</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>2001</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="N9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="O9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="P9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="Q9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:17" ht="100" customHeight="1">
+    <row r="10" spans="1:18" ht="100" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
@@ -4064,42 +4104,45 @@
       <c r="E10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="11">
         <v>3</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="11">
         <v>3</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>2001</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="P10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="Q10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:17" ht="100" customHeight="1">
+    <row r="11" spans="1:18" ht="100" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>32</v>
       </c>
@@ -4115,42 +4158,45 @@
       <c r="E11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="11">
         <v>4</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="11">
+      <c r="K11" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <v>2012</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="N11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="P11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="Q11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:17" ht="100" customHeight="1">
+    <row r="12" spans="1:18" ht="100" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>32</v>
       </c>
@@ -4166,42 +4212,45 @@
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="11">
         <v>5</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="11">
+      <c r="K12" s="11">
         <v>3</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <v>2016</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="N12" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="P12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="Q12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:17" ht="100" customHeight="1">
+    <row r="13" spans="1:18" ht="100" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -4217,42 +4266,45 @@
       <c r="E13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="11">
         <v>5</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="11">
+      <c r="K13" s="11">
         <v>3</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>2016</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="18" t="s">
+      <c r="N13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="P13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="Q13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:17" ht="100" customHeight="1">
+    <row r="14" spans="1:18" ht="100" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
@@ -4268,42 +4320,45 @@
       <c r="E14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="11">
         <v>5</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="11">
         <v>3</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="11">
+      <c r="K14" s="11">
         <v>3</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <v>2016</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="N14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="P14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="Q14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="100" customHeight="1">
+    <row r="15" spans="1:18" ht="100" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>32</v>
       </c>
@@ -4319,42 +4374,45 @@
       <c r="E15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="12">
         <v>6</v>
       </c>
-      <c r="G15" s="12">
+      <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>6</v>
       </c>
-      <c r="K15" s="12">
+      <c r="L15" s="12">
         <v>2008</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="M15" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="N15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="18" t="s">
+      <c r="O15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="P15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="Q15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:17" ht="100" customHeight="1">
+    <row r="16" spans="1:18" ht="100" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
@@ -4370,42 +4428,45 @@
       <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="12">
         <v>7</v>
       </c>
-      <c r="G16" s="12">
+      <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <v>4</v>
       </c>
-      <c r="K16" s="12">
+      <c r="L16" s="12">
         <v>2013</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="M16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="N16" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="O16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="P16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="18" t="s">
+      <c r="Q16" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
-    <row r="17" spans="1:18" ht="100" customHeight="1">
+    <row r="17" spans="1:19" ht="100" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
@@ -4421,42 +4482,45 @@
       <c r="E17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="12">
         <v>7</v>
       </c>
-      <c r="G17" s="12">
+      <c r="H17" s="12">
         <v>2</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="I17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>4</v>
       </c>
-      <c r="K17" s="12">
+      <c r="L17" s="12">
         <v>2013</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="M17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="N17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="O17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="P17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="Q17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" ht="100" customHeight="1">
+    <row r="18" spans="1:19" s="6" customFormat="1" ht="100" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>70</v>
       </c>
@@ -4470,45 +4534,48 @@
         <v>73</v>
       </c>
       <c r="E18" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
       </c>
       <c r="G18" s="11">
         <v>1</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <v>2019</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="N18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="N18" s="23" t="s">
+      <c r="O18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="P18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="Q18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="9"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="19" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>70</v>
       </c>
@@ -4522,45 +4589,48 @@
         <v>73</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
         <v>2</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>1</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="J19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="11">
+      <c r="K19" s="11">
         <v>11</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <v>2012</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="N19" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="O19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="P19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="25" t="s">
+      <c r="Q19" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="20" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A20" s="21" t="s">
         <v>70</v>
       </c>
@@ -4574,45 +4644,48 @@
         <v>73</v>
       </c>
       <c r="E20" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="11">
+      <c r="G20" s="11">
         <v>3</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>1</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="J20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <v>2017</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="N20" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="O20" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="P20" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="P20" s="26" t="s">
+      <c r="Q20" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="10"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="21" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>70</v>
       </c>
@@ -4626,45 +4699,48 @@
         <v>73</v>
       </c>
       <c r="E21" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="11">
+      <c r="G21" s="11">
         <v>4</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="11">
         <v>1</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="J21" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <v>2006</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="N21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="O21" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="P21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="Q21" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="10"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="22" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>70</v>
       </c>
@@ -4678,45 +4754,48 @@
         <v>73</v>
       </c>
       <c r="E22" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="11">
+      <c r="G22" s="11">
         <v>4</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H22" s="11">
         <v>2</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="I22" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="J22" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <v>2006</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="N22" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="O22" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="P22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="27" t="s">
+      <c r="Q22" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="10"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="23" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>70</v>
       </c>
@@ -4730,45 +4809,48 @@
         <v>73</v>
       </c>
       <c r="E23" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>5</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>1</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="J23" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>2012</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="N23" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="O23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="P23" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="P23" s="28" t="s">
+      <c r="Q23" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="10"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="24" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>70</v>
       </c>
@@ -4782,45 +4864,48 @@
         <v>73</v>
       </c>
       <c r="E24" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>6</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>1</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="J24" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>2002</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="N24" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="O24" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="P24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="29" t="s">
+      <c r="Q24" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="10"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="25" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>70</v>
       </c>
@@ -4834,45 +4919,48 @@
         <v>73</v>
       </c>
       <c r="E25" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G25" s="11">
         <v>6</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>1</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>2002</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="N25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="O25" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="P25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="29" t="s">
+      <c r="Q25" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="10"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="26" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A26" s="21" t="s">
         <v>70</v>
       </c>
@@ -4886,45 +4974,48 @@
         <v>73</v>
       </c>
       <c r="E26" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>7</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="I26" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="J26" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>3</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>2001</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="N26" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="O26" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="P26" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="P26" s="30" t="s">
+      <c r="Q26" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="10"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="27" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>70</v>
       </c>
@@ -4938,41 +5029,44 @@
         <v>73</v>
       </c>
       <c r="E27" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>8</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>1</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="J27" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>9</v>
       </c>
-      <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="11"/>
+      <c r="N27" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="O27" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="P27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="Q27" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="10"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="28" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>70</v>
       </c>
@@ -4986,45 +5080,48 @@
         <v>73</v>
       </c>
       <c r="E28" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="11">
+      <c r="G28" s="11">
         <v>8</v>
       </c>
-      <c r="G28" s="11">
+      <c r="H28" s="11">
         <v>2</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="J28" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="11">
+      <c r="K28" s="11">
         <v>8</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11">
         <v>2001</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="N28" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="O28" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="O28" s="15" t="s">
+      <c r="P28" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P28" s="31" t="s">
+      <c r="Q28" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="10"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="29" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>70</v>
       </c>
@@ -5038,45 +5135,48 @@
         <v>73</v>
       </c>
       <c r="E29" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="11">
+      <c r="G29" s="11">
         <v>9</v>
       </c>
-      <c r="G29" s="11">
+      <c r="H29" s="11">
         <v>1</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="J29" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="11">
+      <c r="K29" s="11">
         <v>11</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="11">
         <v>2006</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="M29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="N29" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="O29" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="O29" s="15" t="s">
+      <c r="P29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="Q29" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="10"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="30" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>70</v>
       </c>
@@ -5090,45 +5190,48 @@
         <v>73</v>
       </c>
       <c r="E30" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="11">
         <v>9</v>
       </c>
-      <c r="G30" s="11">
+      <c r="H30" s="11">
         <v>1</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="I30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="J30" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J30" s="11">
+      <c r="K30" s="11">
         <v>10</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="11">
         <v>2006</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="M30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M30" s="22" t="s">
+      <c r="N30" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="O30" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="P30" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="Q30" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="10"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="31" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>70</v>
       </c>
@@ -5142,45 +5245,48 @@
         <v>73</v>
       </c>
       <c r="E31" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="11">
+      <c r="G31" s="11">
         <v>10</v>
       </c>
-      <c r="G31" s="11">
+      <c r="H31" s="11">
         <v>1</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="J31" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="K31" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11">
         <v>1990</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="M31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M31" s="22" t="s">
+      <c r="N31" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="O31" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="O31" s="15" t="s">
+      <c r="P31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P31" s="33" t="s">
+      <c r="Q31" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="10"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="32" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>70</v>
       </c>
@@ -5194,45 +5300,48 @@
         <v>73</v>
       </c>
       <c r="E32" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="11">
+      <c r="G32" s="11">
         <v>10</v>
       </c>
-      <c r="G32" s="11">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="J32" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="K32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="11">
         <v>1990</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="M32" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="N32" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="O32" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="O32" s="15" t="s">
+      <c r="P32" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P32" s="33" t="s">
+      <c r="Q32" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="10"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="33" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>70</v>
       </c>
@@ -5246,45 +5355,48 @@
         <v>73</v>
       </c>
       <c r="E33" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="11">
+      <c r="G33" s="11">
         <v>11</v>
       </c>
-      <c r="G33" s="11">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="34" t="s">
+      <c r="J33" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="11">
         <v>2010</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="M33" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="N33" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="O33" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="O33" s="15" t="s">
+      <c r="P33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P33" s="28" t="s">
+      <c r="Q33" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="10"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="34" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A34" s="21" t="s">
         <v>70</v>
       </c>
@@ -5298,45 +5410,48 @@
         <v>73</v>
       </c>
       <c r="E34" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="11">
+      <c r="G34" s="11">
         <v>11</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H34" s="11">
         <v>2</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="34" t="s">
+      <c r="J34" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="K34" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="11">
         <v>2010</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="M34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="N34" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="O34" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="O34" s="15" t="s">
+      <c r="P34" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P34" s="28" t="s">
+      <c r="Q34" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="10"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="35" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>70</v>
       </c>
@@ -5350,45 +5465,48 @@
         <v>73</v>
       </c>
       <c r="E35" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="11">
+      <c r="G35" s="11">
         <v>12</v>
       </c>
-      <c r="G35" s="11">
+      <c r="H35" s="11">
         <v>1</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="J35" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="K35" s="11">
+      <c r="L35" s="11">
         <v>2008</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="M35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="22" t="s">
+      <c r="N35" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="O35" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="P35" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P35" s="35" t="s">
+      <c r="Q35" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="10"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="10"/>
     </row>
-    <row r="36" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="36" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>70</v>
       </c>
@@ -5402,45 +5520,48 @@
         <v>73</v>
       </c>
       <c r="E36" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="12">
+      <c r="G36" s="12">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
+      <c r="H36" s="12">
         <v>1</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="I36" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="J36" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="K36" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="K36" s="12">
+      <c r="L36" s="12">
         <v>2005</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="M36" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="N36" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="N36" s="18" t="s">
+      <c r="O36" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="O36" s="20" t="s">
+      <c r="P36" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="P36" s="27" t="s">
+      <c r="Q36" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="10"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="10"/>
     </row>
-    <row r="37" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="37" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>70</v>
       </c>
@@ -5454,45 +5575,48 @@
         <v>73</v>
       </c>
       <c r="E37" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="12">
+      <c r="G37" s="12">
         <v>14</v>
       </c>
-      <c r="G37" s="12">
+      <c r="H37" s="12">
         <v>1</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="I37" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="J37" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="J37" s="12">
+      <c r="K37" s="12">
         <v>22</v>
       </c>
-      <c r="K37" s="12">
+      <c r="L37" s="12">
         <v>2008</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="M37" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="22" t="s">
+      <c r="N37" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="O37" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="O37" s="20" t="s">
+      <c r="P37" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="P37" s="37" t="s">
+      <c r="Q37" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="10"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="10"/>
     </row>
-    <row r="38" spans="1:18" s="6" customFormat="1" ht="100" customHeight="1">
+    <row r="38" spans="1:19" s="6" customFormat="1" ht="100" customHeight="1">
       <c r="A38" s="11" t="s">
         <v>151</v>
       </c>
@@ -5508,43 +5632,46 @@
       <c r="E38" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="11">
-        <v>1</v>
+      <c r="F38" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="G38" s="11">
         <v>1</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="11">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="J38" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J38" s="11">
+      <c r="K38" s="11">
         <v>10</v>
       </c>
-      <c r="K38" s="11">
+      <c r="L38" s="11">
         <v>2019</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="M38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M38" s="38" t="s">
+      <c r="N38" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="O38" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="O38" s="15" t="s">
+      <c r="P38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="Q38" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="9"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="39" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A39" s="11" t="s">
         <v>151</v>
       </c>
@@ -5560,43 +5687,46 @@
       <c r="E39" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="11">
-        <v>1</v>
+      <c r="F39" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="G39" s="11">
         <v>1</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="11">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J39" s="11">
+      <c r="K39" s="11">
         <v>21</v>
       </c>
-      <c r="K39" s="11">
+      <c r="L39" s="11">
         <v>2017</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="M39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="38" t="s">
+      <c r="N39" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="O39" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O39" s="15" t="s">
+      <c r="P39" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="Q39" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="10"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="40" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A40" s="11" t="s">
         <v>151</v>
       </c>
@@ -5612,43 +5742,46 @@
       <c r="E40" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="11">
-        <v>1</v>
+      <c r="F40" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="G40" s="11">
         <v>1</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="11">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="J40" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J40" s="11">
+      <c r="K40" s="11">
         <v>9</v>
       </c>
-      <c r="K40" s="11">
+      <c r="L40" s="11">
         <v>2016</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="M40" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="38" t="s">
+      <c r="N40" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="O40" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="O40" s="15" t="s">
+      <c r="P40" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="Q40" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="10"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="41" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A41" s="11" t="s">
         <v>168</v>
       </c>
@@ -5664,43 +5797,46 @@
       <c r="E41" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G41" s="11">
         <v>2</v>
       </c>
-      <c r="G41" s="11">
+      <c r="H41" s="11">
         <v>1</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="I41" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="J41" s="11">
+      <c r="K41" s="11">
         <v>7</v>
       </c>
-      <c r="K41" s="11">
+      <c r="L41" s="11">
         <v>2009</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="M41" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="N41" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="N41" s="39" t="s">
+      <c r="O41" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="P41" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="Q41" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="10"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="42" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>168</v>
       </c>
@@ -5716,43 +5852,46 @@
       <c r="E42" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="11">
         <v>2</v>
       </c>
-      <c r="G42" s="11">
+      <c r="H42" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="11">
+      <c r="K42" s="11">
         <v>3</v>
       </c>
-      <c r="K42" s="11">
+      <c r="L42" s="11">
         <v>2009</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="M42" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="N42" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="N42" s="39" t="s">
+      <c r="O42" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="O42" s="15" t="s">
+      <c r="P42" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P42" s="39" t="s">
+      <c r="Q42" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="10"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="43" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A43" s="11" t="s">
         <v>168</v>
       </c>
@@ -5768,43 +5907,46 @@
       <c r="E43" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" s="11">
         <v>3</v>
       </c>
-      <c r="G43" s="11">
+      <c r="H43" s="11">
         <v>1</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="J43" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="J43" s="11">
+      <c r="K43" s="11">
         <v>2</v>
       </c>
-      <c r="K43" s="44">
+      <c r="L43" s="44">
         <v>1996</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="M43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="N43" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="N43" s="39" t="s">
+      <c r="O43" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="O43" s="15" t="s">
+      <c r="P43" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P43" s="39" t="s">
+      <c r="Q43" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="10"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="44" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A44" s="11" t="s">
         <v>168</v>
       </c>
@@ -5820,43 +5962,46 @@
       <c r="E44" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G44" s="11">
         <v>4</v>
       </c>
-      <c r="G44" s="11">
+      <c r="H44" s="11">
         <v>1</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="I44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="J44" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="11">
+      <c r="K44" s="11">
         <v>6</v>
       </c>
-      <c r="K44" s="44">
+      <c r="L44" s="44">
         <v>1995</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="M44" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M44" s="18" t="s">
+      <c r="N44" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="N44" s="39" t="s">
+      <c r="O44" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="O44" s="15" t="s">
+      <c r="P44" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P44" s="39" t="s">
+      <c r="Q44" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="10"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:18" s="6" customFormat="1" ht="100" customHeight="1">
+    <row r="45" spans="1:19" s="6" customFormat="1" ht="100" customHeight="1">
       <c r="A45" s="11" t="s">
         <v>168</v>
       </c>
@@ -5872,43 +6017,46 @@
       <c r="E45" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="11">
         <v>5</v>
       </c>
-      <c r="G45" s="11">
+      <c r="H45" s="11">
         <v>1</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="J45" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="11">
+      <c r="K45" s="11">
         <v>7</v>
       </c>
-      <c r="K45" s="44">
+      <c r="L45" s="44">
         <v>1996</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="M45" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M45" s="18" t="s">
+      <c r="N45" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="O45" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="O45" s="15" t="s">
+      <c r="P45" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P45" s="39" t="s">
+      <c r="Q45" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="9"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="46" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>168</v>
       </c>
@@ -5924,43 +6072,46 @@
       <c r="E46" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="11">
         <v>6</v>
       </c>
-      <c r="G46" s="11">
+      <c r="H46" s="11">
         <v>1</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="J46" s="11">
+      <c r="K46" s="11">
         <v>2</v>
       </c>
-      <c r="K46" s="44">
+      <c r="L46" s="44">
         <v>1997</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="M46" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="N46" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="N46" s="39" t="s">
+      <c r="O46" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="O46" s="15" t="s">
+      <c r="P46" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="39" t="s">
+      <c r="Q46" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="10"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="47" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>168</v>
       </c>
@@ -5976,43 +6127,46 @@
       <c r="E47" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G47" s="11">
         <v>7</v>
       </c>
-      <c r="G47" s="11">
+      <c r="H47" s="11">
         <v>1</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J47" s="11">
+      <c r="K47" s="11">
         <v>4</v>
       </c>
-      <c r="K47" s="11">
+      <c r="L47" s="11">
         <v>2003</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="M47" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M47" s="18" t="s">
+      <c r="N47" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="N47" s="39" t="s">
+      <c r="O47" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="O47" s="15" t="s">
+      <c r="P47" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P47" s="39" t="s">
+      <c r="Q47" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="10"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="48" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A48" s="11" t="s">
         <v>168</v>
       </c>
@@ -6028,45 +6182,48 @@
       <c r="E48" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G48" s="11">
         <v>8</v>
       </c>
-      <c r="G48" s="11">
+      <c r="H48" s="11">
         <v>1</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="11">
+      <c r="K48" s="11">
         <v>213</v>
       </c>
-      <c r="K48" s="11">
+      <c r="L48" s="11">
         <v>2014</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="M48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M48" s="39" t="s">
+      <c r="N48" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="N48" s="39" t="s">
+      <c r="O48" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="O48" s="15" t="s">
+      <c r="P48" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P48" s="39" t="s">
+      <c r="Q48" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="Q48" s="16" t="s">
+      <c r="R48" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="49" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A49" s="11" t="s">
         <v>168</v>
       </c>
@@ -6082,45 +6239,48 @@
       <c r="E49" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="11">
         <v>9</v>
       </c>
-      <c r="G49" s="11">
+      <c r="H49" s="11">
         <v>1</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="11">
+      <c r="K49" s="11">
         <v>70</v>
       </c>
-      <c r="K49" s="11">
+      <c r="L49" s="11">
         <v>2012</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="M49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M49" s="18" t="s">
+      <c r="N49" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="N49" s="39" t="s">
+      <c r="O49" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="O49" s="15" t="s">
+      <c r="P49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P49" s="39" t="s">
+      <c r="Q49" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="Q49" s="16" t="s">
+      <c r="R49" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="50" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>168</v>
       </c>
@@ -6136,43 +6296,46 @@
       <c r="E50" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50" s="11">
         <v>10</v>
       </c>
-      <c r="G50" s="11">
+      <c r="H50" s="11">
         <v>1</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="I50" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="J50" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J50" s="11">
+      <c r="K50" s="11">
         <v>11</v>
       </c>
-      <c r="K50" s="11">
+      <c r="L50" s="11">
         <v>2017</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="M50" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M50" s="18" t="s">
+      <c r="N50" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="N50" s="39" t="s">
+      <c r="O50" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="O50" s="15" t="s">
+      <c r="P50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P50" s="39" t="s">
+      <c r="Q50" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="10"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:18" s="7" customFormat="1" ht="100" customHeight="1">
+    <row r="51" spans="1:19" s="7" customFormat="1" ht="100" customHeight="1">
       <c r="A51" s="11" t="s">
         <v>168</v>
       </c>
@@ -6188,43 +6351,46 @@
       <c r="E51" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G51" s="11">
         <v>11</v>
       </c>
-      <c r="G51" s="11">
+      <c r="H51" s="11">
         <v>1</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J51" s="11">
+      <c r="K51" s="11">
         <v>2</v>
       </c>
-      <c r="K51" s="11">
+      <c r="L51" s="11">
         <v>2008</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="M51" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M51" s="18" t="s">
+      <c r="N51" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="N51" s="39" t="s">
+      <c r="O51" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="O51" s="15" t="s">
+      <c r="P51" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="Q51" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="10"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:18" s="47" customFormat="1" ht="76" customHeight="1">
+    <row r="52" spans="1:19" s="47" customFormat="1" ht="76" customHeight="1">
       <c r="A52" s="45" t="s">
         <v>213</v>
       </c>
@@ -6240,41 +6406,44 @@
       <c r="E52" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G52" s="4">
         <v>27</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>5</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>12</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>2011</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="O52" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O52" s="4" t="s">
+      <c r="P52" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="Q52" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="47" customFormat="1" ht="79" customHeight="1">
+    <row r="53" spans="1:19" s="47" customFormat="1" ht="79" customHeight="1">
       <c r="A53" s="45" t="s">
         <v>213</v>
       </c>
@@ -6290,41 +6459,44 @@
       <c r="E53" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G53" s="4">
         <v>27</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>6</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J53" s="4">
+      <c r="K53" s="4">
         <v>12</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <v>2011</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="M53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="N53" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="O53" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O53" s="4" t="s">
+      <c r="P53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="47" customFormat="1" ht="88" customHeight="1">
+    <row r="54" spans="1:19" s="47" customFormat="1" ht="88" customHeight="1">
       <c r="A54" s="45" t="s">
         <v>213</v>
       </c>
@@ -6340,41 +6512,44 @@
       <c r="E54" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G54" s="4">
         <v>28</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>1</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J54" s="4">
+      <c r="K54" s="4">
         <v>19</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="4">
         <v>2007</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="N54" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="O54" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="O54" s="4" t="s">
+      <c r="P54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="48" customFormat="1" ht="84" customHeight="1">
+    <row r="55" spans="1:19" s="48" customFormat="1" ht="84" customHeight="1">
       <c r="A55" s="45" t="s">
         <v>213</v>
       </c>
@@ -6390,41 +6565,44 @@
       <c r="E55" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G55" s="45">
         <v>28</v>
       </c>
-      <c r="G55" s="45">
+      <c r="H55" s="45">
         <v>2</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J55" s="45">
+      <c r="K55" s="45">
         <v>12</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <v>2007</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="N55" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="O55" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="O55" s="4" t="s">
+      <c r="P55" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="48" customFormat="1" ht="71" customHeight="1">
+    <row r="56" spans="1:19" s="48" customFormat="1" ht="71" customHeight="1">
       <c r="A56" s="45" t="s">
         <v>213</v>
       </c>
@@ -6440,41 +6618,44 @@
       <c r="E56" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" s="45">
         <v>29</v>
       </c>
-      <c r="G56" s="45">
+      <c r="H56" s="45">
         <v>1</v>
       </c>
-      <c r="H56" s="48" t="s">
+      <c r="I56" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="J56" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="J56" s="45">
+      <c r="K56" s="45">
         <v>8</v>
       </c>
-      <c r="K56" s="45">
+      <c r="L56" s="45">
         <v>2015</v>
       </c>
-      <c r="L56" s="45" t="s">
+      <c r="M56" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M56" s="49" t="s">
+      <c r="N56" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="N56" s="48" t="s">
+      <c r="O56" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="O56" s="45" t="s">
+      <c r="P56" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P56" s="48" t="s">
+      <c r="Q56" s="48" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="48" customFormat="1" ht="65" customHeight="1">
+    <row r="57" spans="1:19" s="48" customFormat="1" ht="65" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>213</v>
       </c>
@@ -6490,41 +6671,44 @@
       <c r="E57" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" s="45">
         <v>30</v>
       </c>
-      <c r="G57" s="45">
+      <c r="H57" s="45">
         <v>1</v>
       </c>
-      <c r="H57" s="48" t="s">
+      <c r="I57" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="I57" s="48" t="s">
+      <c r="J57" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="J57" s="45">
+      <c r="K57" s="45">
         <v>64</v>
       </c>
-      <c r="K57" s="45">
+      <c r="L57" s="45">
         <v>2017</v>
       </c>
-      <c r="L57" s="45" t="s">
+      <c r="M57" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M57" s="49" t="s">
+      <c r="N57" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="N57" s="48" t="s">
+      <c r="O57" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="O57" s="45" t="s">
+      <c r="P57" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P57" s="48" t="s">
+      <c r="Q57" s="48" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="48" customFormat="1" ht="65" customHeight="1">
+    <row r="58" spans="1:19" s="48" customFormat="1" ht="65" customHeight="1">
       <c r="A58" s="45" t="s">
         <v>213</v>
       </c>
@@ -6540,41 +6724,44 @@
       <c r="E58" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G58" s="45">
         <v>30</v>
       </c>
-      <c r="G58" s="45">
+      <c r="H58" s="45">
         <v>2</v>
       </c>
-      <c r="H58" s="48" t="s">
+      <c r="I58" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I58" s="48" t="s">
+      <c r="J58" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="J58" s="45">
+      <c r="K58" s="45">
         <v>9</v>
       </c>
-      <c r="K58" s="45">
+      <c r="L58" s="45">
         <v>2017</v>
       </c>
-      <c r="L58" s="45" t="s">
+      <c r="M58" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M58" s="49" t="s">
+      <c r="N58" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="N58" s="48" t="s">
+      <c r="O58" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="O58" s="45" t="s">
+      <c r="P58" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P58" s="48" t="s">
+      <c r="Q58" s="48" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="48" customFormat="1" ht="84" customHeight="1">
+    <row r="59" spans="1:19" s="48" customFormat="1" ht="84" customHeight="1">
       <c r="A59" s="45" t="s">
         <v>213</v>
       </c>
@@ -6590,41 +6777,44 @@
       <c r="E59" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" s="45">
         <v>31</v>
       </c>
-      <c r="G59" s="45">
+      <c r="H59" s="45">
         <v>1</v>
       </c>
-      <c r="H59" s="45" t="s">
+      <c r="I59" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="J59" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="J59" s="45">
+      <c r="K59" s="45">
         <v>12</v>
       </c>
-      <c r="K59" s="45">
+      <c r="L59" s="45">
         <v>2014</v>
       </c>
-      <c r="L59" s="45" t="s">
+      <c r="M59" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="N59" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="N59" s="49" t="s">
+      <c r="O59" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="O59" s="45" t="s">
+      <c r="P59" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="Q59" s="7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="48" customFormat="1" ht="96" customHeight="1">
+    <row r="60" spans="1:19" s="48" customFormat="1" ht="96" customHeight="1">
       <c r="A60" s="45" t="s">
         <v>213</v>
       </c>
@@ -6640,41 +6830,44 @@
       <c r="E60" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G60" s="45">
         <v>32</v>
       </c>
-      <c r="G60" s="45">
+      <c r="H60" s="45">
         <v>1</v>
       </c>
-      <c r="H60" s="45" t="s">
+      <c r="I60" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="J60" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="J60" s="45">
+      <c r="K60" s="45">
         <v>6</v>
       </c>
-      <c r="K60" s="45">
+      <c r="L60" s="45">
         <v>2018</v>
       </c>
-      <c r="L60" s="45" t="s">
+      <c r="M60" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="M60" s="49" t="s">
+      <c r="N60" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="N60" s="50" t="s">
+      <c r="O60" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="O60" s="45" t="s">
+      <c r="P60" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="P60" s="49" t="s">
+      <c r="Q60" s="49" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="47" customFormat="1" ht="87" customHeight="1">
+    <row r="61" spans="1:19" s="47" customFormat="1" ht="87" customHeight="1">
       <c r="A61" s="45" t="s">
         <v>213</v>
       </c>
@@ -6690,41 +6883,44 @@
       <c r="E61" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G61" s="4">
         <v>33</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>1</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J61" s="4">
+      <c r="K61" s="4">
         <v>24</v>
       </c>
-      <c r="K61" s="4">
+      <c r="L61" s="4">
         <v>2011</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="M61" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="N61" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="O61" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="O61" s="4" t="s">
+      <c r="P61" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="Q61" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="47" customFormat="1" ht="84" customHeight="1">
+    <row r="62" spans="1:19" s="47" customFormat="1" ht="84" customHeight="1">
       <c r="A62" s="45" t="s">
         <v>213</v>
       </c>
@@ -6740,42 +6936,45 @@
       <c r="E62" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G62" s="4">
         <v>34</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <v>1</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="J62" s="4">
+      <c r="K62" s="4">
         <v>11</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L62" s="4">
         <v>2018</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="M62" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="N62" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="O62" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="O62" s="4" t="s">
+      <c r="P62" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="100" customHeight="1"/>
-    <row r="64" spans="1:18" ht="100" customHeight="1"/>
+    <row r="63" spans="1:19" ht="100" customHeight="1"/>
+    <row r="64" spans="1:19" ht="100" customHeight="1"/>
     <row r="65" ht="100" customHeight="1"/>
     <row r="66" ht="100" customHeight="1"/>
     <row r="67" ht="100" customHeight="1"/>
@@ -6814,19 +7013,19 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D51 D54 D59" xr:uid="{2D99C492-75B9-B643-87D5-9CBC1D8FFCB8}">
       <formula1>"Cooperation,Fairness,Social Learning,ToM,Vocalization"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O51 O52:O53" xr:uid="{59D9AEA8-C56D-C64B-B844-1E07FFC3D5AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P53" xr:uid="{59D9AEA8-C56D-C64B-B844-1E07FFC3D5AF}">
       <formula1>"experimental,observational,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L51" xr:uid="{F0C7E174-6FFA-1546-9D4A-9AF323785CD9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M51" xr:uid="{F0C7E174-6FFA-1546-9D4A-9AF323785CD9}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K30 K33:K40" xr:uid="{BBF6CB93-8030-A648-9453-085397FE4B4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L30 L33:L40" xr:uid="{BBF6CB93-8030-A648-9453-085397FE4B4E}">
       <formula1>"2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010,2011,2012,2013,2014,2015,2016,2017,2018,2019"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17 C38:C51" xr:uid="{E3B7BC62-D897-374C-9AAD-6C3FF21ED2BE}">
       <formula1>"Physical Cognition, Social Cognition, Meta-Cognition"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K31:K32" xr:uid="{52D24871-FB94-E243-A8CD-6F83290910E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L31:L32" xr:uid="{52D24871-FB94-E243-A8CD-6F83290910E8}">
       <formula1>"1990, 2000,2001,2002,2003,2004,2005,2006,2007,2008,2009,2010,2011,2012,2013,2014,2015,2016,2017,2018,2019"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C37" xr:uid="{389143E5-C4D7-F34E-9136-29F2FBAEAE17}">
@@ -6834,12 +7033,12 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" display="https://doi.org/10.1038/s41598-017-11400-z" xr:uid="{3DDAA963-E97C-F14E-A84A-651877AAA205}"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://doi.org/10.1038/s41598-017-11400-z" xr:uid="{6A61FC73-A0B4-F943-B986-0E0F4FE13AF0}"/>
-    <hyperlink ref="N13" r:id="rId3" display="https://psycnet.apa.org/doi/10.1037/com0000046" xr:uid="{94D679BA-2F06-D749-A310-C5562A547B60}"/>
-    <hyperlink ref="N12" r:id="rId4" display="https://psycnet.apa.org/doi/10.1037/com0000046" xr:uid="{61A5DA18-3319-7443-97CD-F4224CF1399D}"/>
-    <hyperlink ref="N14" r:id="rId5" display="https://psycnet.apa.org/doi/10.1037/com0000046" xr:uid="{2C0FEA03-C14C-7D44-9A0D-41902FBAA4BA}"/>
-    <hyperlink ref="N18" r:id="rId6" display="https://doi.org/10.3389/fpsyg.2019.00512" xr:uid="{B6CE33C6-E855-AC43-994D-0E72B9FEA313}"/>
+    <hyperlink ref="O4" r:id="rId1" display="https://doi.org/10.1038/s41598-017-11400-z" xr:uid="{3DDAA963-E97C-F14E-A84A-651877AAA205}"/>
+    <hyperlink ref="O3" r:id="rId2" display="https://doi.org/10.1038/s41598-017-11400-z" xr:uid="{6A61FC73-A0B4-F943-B986-0E0F4FE13AF0}"/>
+    <hyperlink ref="O13" r:id="rId3" display="https://psycnet.apa.org/doi/10.1037/com0000046" xr:uid="{94D679BA-2F06-D749-A310-C5562A547B60}"/>
+    <hyperlink ref="O12" r:id="rId4" display="https://psycnet.apa.org/doi/10.1037/com0000046" xr:uid="{61A5DA18-3319-7443-97CD-F4224CF1399D}"/>
+    <hyperlink ref="O14" r:id="rId5" display="https://psycnet.apa.org/doi/10.1037/com0000046" xr:uid="{2C0FEA03-C14C-7D44-9A0D-41902FBAA4BA}"/>
+    <hyperlink ref="O18" r:id="rId6" display="https://doi.org/10.3389/fpsyg.2019.00512" xr:uid="{B6CE33C6-E855-AC43-994D-0E72B9FEA313}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId7"/>
